--- a/biology/Botanique/Epithelantha/Epithelantha.xlsx
+++ b/biology/Botanique/Epithelantha/Epithelantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epithelantha est un genre de plantes à fleurs de la famille des Cactaceae.
 Deux espèces le compose: Epithelantha bokei et Epithelantha micromeris.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Epithelantha sont des cactées miniatures cespiteuses, la tige aux dimensions de 1 à 6 cm de diamètre, est recouverte d'épines fines et blanches.
 Les fleurs sont blanches ou roses, discrètes et apparaissant à l'apex, elles sont autofertiles.
@@ -544,11 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Nord : Nord-ouest du Mexique (Coahuila, San Luis de Potosi et Nuevo Léon) ainsi que dans l'est de l'Arizona, au Nouveau-Mexique et dans l'ouest du Texas.
-Habitat
-Sur les buttes de sols calcaires, en zone rocheuse.
 </t>
         </is>
       </c>
@@ -574,13 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Epithelantha ont une croissance lente, elles supportent, au sec, des températures allant jusqu'à -10°.
-Le substrat doit être minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les buttes de sols calcaires, en zone rocheuse.
 </t>
         </is>
       </c>
@@ -606,12 +625,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Epithelantha tient son nom du grec, signifiant "fleur (anthos), au-dessus (epi), du tubercule (thele)", faisant référence  à la position de la fleur près de l'apex du tubercule.</t>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Epithelantha ont une croissance lente, elles supportent, au sec, des températures allant jusqu'à -10°.
+Le substrat doit être minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+</t>
         </is>
       </c>
     </row>
@@ -636,10 +659,44 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Epithelantha tient son nom du grec, signifiant "fleur (anthos), au-dessus (epi), du tubercule (thele)", faisant référence  à la position de la fleur près de l'apex du tubercule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Epithelantha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epithelantha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Epithelantha bokei
 Epithelantha micromeris
